--- a/data/trans_camb/P74B-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.590340322806737</v>
+        <v>-1.612315040742783</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0004398524833452727</v>
+        <v>0.1081525177648668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-34.91182283332863</v>
+        <v>-34.394408784768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-36.80451841539942</v>
+        <v>-36.66164210984579</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.3770494654978</v>
+        <v>-16.84929156990278</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-15.41399929511685</v>
+        <v>-15.39479024003077</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.121001853797229</v>
+        <v>7.041270396762088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.614878853219146</v>
+        <v>8.316396555217453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-19.21183143057602</v>
+        <v>-19.18197993976311</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-21.96869132292453</v>
+        <v>-21.37939421947453</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-5.104080140183321</v>
+        <v>-5.627670366516949</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.829128270978905</v>
+        <v>-5.404083124439897</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1648209556111979</v>
+        <v>-0.1670555406638391</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01295649136345041</v>
+        <v>0.01122021185688898</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4193885650785383</v>
+        <v>-0.4111294931393618</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4445067651633634</v>
+        <v>-0.4375278647685167</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3663777372185599</v>
+        <v>-0.38420601827823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3658472939210761</v>
+        <v>-0.3636285559526367</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.367129190048499</v>
+        <v>1.279621263937667</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.575644885383321</v>
+        <v>1.502725161863523</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2529510136057219</v>
+        <v>-0.2498189778827141</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2893692990649379</v>
+        <v>-0.2784516533397159</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1427714815054818</v>
+        <v>-0.1508158241532785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1433986935670119</v>
+        <v>-0.1491578951363432</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8208925459475688</v>
+        <v>-1.249023776954819</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.65829863919872</v>
+        <v>3.0708941377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.98055635869007</v>
+        <v>-20.88198730888019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-19.83636970239115</v>
+        <v>-18.94327167599533</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02407042093184103</v>
+        <v>0.2156841687248824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.269903444374276</v>
+        <v>1.949063354393195</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.422014287193528</v>
+        <v>6.585879134503402</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.49219897423691</v>
+        <v>11.03684367162183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.076168103969243</v>
+        <v>-5.220665711863378</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.775245725179008</v>
+        <v>-3.651685934300636</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.17753385662455</v>
+        <v>9.992245670893553</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.42617098799179</v>
+        <v>12.06442830018473</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09382934435958386</v>
+        <v>-0.1517694631458463</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3274380543430186</v>
+        <v>0.3378277445691786</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2529865794339899</v>
+        <v>-0.2445508104428908</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2346090393316853</v>
+        <v>-0.2285817837683122</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.002870832858802043</v>
+        <v>0.008634477321968485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07363631785154402</v>
+        <v>0.063053810292266</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.176164204268944</v>
+        <v>1.150983599788866</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.037561022437657</v>
+        <v>2.026229438803875</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.06604503963991655</v>
+        <v>-0.06776465451079927</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04598204115192549</v>
+        <v>-0.04824798470815567</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4024907726819949</v>
+        <v>0.3875433510968327</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4792015347132586</v>
+        <v>0.4612379012506016</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.885381077625863</v>
+        <v>6.415336717052334</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5812505787377389</v>
+        <v>0.9528262884512469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.432725558743404</v>
+        <v>-7.194729578518302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.267877528932258</v>
+        <v>-8.303058420927032</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>12.00334020329353</v>
+        <v>11.93389677570324</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.549940316687806</v>
+        <v>7.369230415265232</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.64511603422747</v>
+        <v>16.46882323848296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.856625746680498</v>
+        <v>9.775559166568614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.886006177064335</v>
+        <v>7.882612541985755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.327123203212639</v>
+        <v>8.010478191646371</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>23.66115414462132</v>
+        <v>23.36315096641833</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.53833783080984</v>
+        <v>18.90903669067197</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7953329189424148</v>
+        <v>0.7140825867914369</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06574545907373384</v>
+        <v>0.09444734180121427</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08057106691244489</v>
+        <v>-0.07845718706232131</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08887767535237194</v>
+        <v>-0.09198721824496613</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4154903077209318</v>
+        <v>0.4201544441581271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2305529392597684</v>
+        <v>0.253412678335366</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.241483569829688</v>
+        <v>3.053180232995489</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.846549656080652</v>
+        <v>1.783262843416298</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09583267494102078</v>
+        <v>0.09421911104966879</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.08737454431238778</v>
+        <v>0.09610163861169568</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.001993009146154</v>
+        <v>0.9926251122176224</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7981893448137916</v>
+        <v>0.8122314539348175</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.147560009630467</v>
+        <v>-1.826869883946983</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.596556668292033</v>
+        <v>-5.55054811893076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-20.08698943756328</v>
+        <v>-20.88676331878676</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-19.03718485818924</v>
+        <v>-21.06859793975561</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.166672774156985</v>
+        <v>6.764327564048875</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.494006537621244</v>
+        <v>3.031736876139731</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.422538584531</v>
+        <v>14.89316920238235</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.418948393984593</v>
+        <v>8.879472657021013</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.373745378686174</v>
+        <v>3.8353984470222</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.359146199779542</v>
+        <v>4.041120539732455</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>25.44974820208177</v>
+        <v>25.2246010185893</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.81923139674129</v>
+        <v>21.20903167245699</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2156134314957934</v>
+        <v>-0.2133096088990556</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.495391747814046</v>
+        <v>-0.4567634644588247</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2143584331166082</v>
+        <v>-0.2228572909525102</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2041338172614902</v>
+        <v>-0.2249232369210911</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1899772145773253</v>
+        <v>0.2149688193870458</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05724831912717196</v>
+        <v>0.08999922533036016</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.009696410477581</v>
+        <v>2.700984596161456</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.611933087949773</v>
+        <v>1.675444145927848</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03585068655698815</v>
+        <v>0.04369112283310021</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04746065322271508</v>
+        <v>0.04234017636890759</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.250579648693229</v>
+        <v>1.217940080910354</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.021108294470165</v>
+        <v>1.005571291159834</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.136470645148963</v>
+        <v>3.108695651123332</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.007154635960281</v>
+        <v>3.041322702311554</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.32630245338305</v>
+        <v>-19.34661073103144</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.76684356849537</v>
+        <v>-21.60896681451806</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.92429608041153</v>
+        <v>1.80572917208469</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6043068622872304</v>
+        <v>0.4198797863792353</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.723794758502746</v>
+        <v>7.643298257882599</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.449868141327824</v>
+        <v>7.38060281818124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.25621689653117</v>
+        <v>-10.23882089416304</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.97043075688338</v>
+        <v>-12.78139367999674</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.771659513828648</v>
+        <v>7.530905130192671</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.449313162271173</v>
+        <v>6.408914689807244</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.364170322029152</v>
+        <v>0.3617155086339591</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3683786840960114</v>
+        <v>0.3665456707850247</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2295393479631524</v>
+        <v>-0.227334017502034</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2557742273925817</v>
+        <v>-0.2546256186916594</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0588824582645342</v>
+        <v>0.05635045667495181</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01934394598081483</v>
+        <v>0.01301494833387522</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.211511056089423</v>
+        <v>1.213426282471502</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.170586550756443</v>
+        <v>1.170928242262577</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1275053423508808</v>
+        <v>-0.1260882043238687</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.1592302277846193</v>
+        <v>-0.1580033663156463</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2749903314922502</v>
+        <v>0.2673635066663196</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2279229011477012</v>
+        <v>0.2235537961817687</v>
       </c>
     </row>
     <row r="34">
